--- a/DoAn/QLTS/wwwroot/Content/files/Import_Teacher.xlsx
+++ b/DoAn/QLTS/wwwroot/Content/files/Import_Teacher.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Do an tot nghiep\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Do an tot nghiep\Do an quan ly thuc hanh\DATN\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90BC66A-7276-4D6A-A385-4202470ABC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5039D3D3-D963-4DBD-8F21-D606421F4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -45,41 +45,74 @@
     <t>Nguyễn Văn Thiện</t>
   </si>
   <si>
-    <t>thiennv2@gmail.com</t>
-  </si>
-  <si>
     <t>2094ddfb-4ba5-4990-07af-bc6172c2cf10</t>
   </si>
   <si>
     <t>Hoàng Tiến Dũng</t>
   </si>
   <si>
-    <t>tiendunghaui@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Việt Hùng</t>
   </si>
   <si>
-    <t>hung2009haui@gmail.com</t>
-  </si>
-  <si>
     <t>Phùng Xuân Sơn</t>
   </si>
   <si>
-    <t>phungxuanson@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Tuấn Linh</t>
   </si>
   <si>
-    <t>tuanlinhck@gmail.com</t>
+    <t>TeacherCode</t>
+  </si>
+  <si>
+    <t>T-100</t>
+  </si>
+  <si>
+    <t>T-101</t>
+  </si>
+  <si>
+    <t>T-102</t>
+  </si>
+  <si>
+    <t>T-103</t>
+  </si>
+  <si>
+    <t>T-104</t>
+  </si>
+  <si>
+    <t>0912543231</t>
+  </si>
+  <si>
+    <t>0904389584</t>
+  </si>
+  <si>
+    <t>0902079577</t>
+  </si>
+  <si>
+    <t>0912548654</t>
+  </si>
+  <si>
+    <t>0904376105</t>
+  </si>
+  <si>
+    <t>thiennv3@gmail.com</t>
+  </si>
+  <si>
+    <t>tiendunghaui1@gmail.com</t>
+  </si>
+  <si>
+    <t>hung2009haui1@gmail.com</t>
+  </si>
+  <si>
+    <t>phungxuanson1@gmail.com</t>
+  </si>
+  <si>
+    <t>tuanlinhck1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +135,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,24 +167,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,124 +469,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>912503231</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
-        <v>904389594</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>904176105</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>912548656</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <v>902079537</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FEB0E462-10AF-489D-A01F-868398C818F1}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{62F8E03A-A9DB-413B-9C28-ABE89ED8ADBB}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{97D78BF1-4E61-40E0-9160-A42CD4FD213B}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{6E844344-4490-4E9F-A67C-87CE24C690D9}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{4E1C9C3D-8D47-433A-95DA-39A391E4C933}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>